--- a/materials/exp_lists/session_2_1.xlsx
+++ b/materials/exp_lists/session_2_1.xlsx
@@ -290,7 +290,7 @@
     <t>pafinu</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>фонтан</t>
@@ -476,10 +476,10 @@
     <t>kovaru = колодец?</t>
   </si>
   <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = барабан?</t>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = барабан?</t>
   </si>
   <si>
     <t>befadu</t>
